--- a/userDetails.xlsx
+++ b/userDetails.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>sendMessage</t>
+  </si>
+  <si>
+    <t>linkMessage</t>
+  </si>
+  <si>
+    <t>maximumLimit</t>
+  </si>
+  <si>
+    <t>NoOfAccountOpened</t>
   </si>
 </sst>
 </file>
@@ -374,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +432,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/userDetails.xlsx
+++ b/userDetails.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 1\eclipse-workspace\LikePersonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="count" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -30,18 +31,6 @@
     <t>postUrl</t>
   </si>
   <si>
-    <t>Crazypriyalovely07</t>
-  </si>
-  <si>
-    <t>Bot@12345</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CyQd-5rLH9Z/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CwpZdW1h--i/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
     <t>Thanks for your Like and Support</t>
   </si>
   <si>
@@ -54,13 +43,32 @@
     <t>maximumLimit</t>
   </si>
   <si>
-    <t>NoOfAccountOpened</t>
+    <t>currentCount</t>
+  </si>
+  <si>
+    <t>executeStartTime</t>
+  </si>
+  <si>
+    <t>pytourist</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Mike@2023</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CyfxvA0yFKo/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CyfxzmJydZt/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,42 +426,77 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>45218.607485416665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>